--- a/TEST_RESOURCES/loginData.xlsx
+++ b/TEST_RESOURCES/loginData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo\Documents\Git\Github\Projection\spring-backend-test\TEST_RESOURCES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,34 +32,34 @@
     <t>Url</t>
   </si>
   <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
     <t>emailEsperado</t>
   </si>
   <si>
     <t>passwordEsperado</t>
   </si>
   <si>
+    <t>Iniciar sesion - Criterio Aceptación 01</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/</t>
+  </si>
+  <si>
     <t>abc123</t>
   </si>
   <si>
+    <t>Username cannot be blank</t>
+  </si>
+  <si>
+    <t>Iniciar sesion - Criterio Aceptación 02</t>
+  </si>
+  <si>
     <t>usertest@gmail.com</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Clave</t>
-  </si>
-  <si>
-    <t>Iniciar sesion - Criterio Aceptación 01</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/</t>
-  </si>
-  <si>
-    <t>Username cannot be blank</t>
-  </si>
-  <si>
-    <t>Iniciar sesion - Criterio Aceptación 02</t>
   </si>
   <si>
     <t>Password cannot be blank</t>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,12 +110,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF032F62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -160,16 +154,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -485,15 +475,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,74 +499,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -582,104 +562,22 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
